--- a/test/configs/data/develop/multilink_expansion.xlsx
+++ b/test/configs/data/develop/multilink_expansion.xlsx
@@ -987,7 +987,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1073,7 @@
         <v>60</v>
       </c>
       <c r="M2" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>60</v>
       </c>
       <c r="M3" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
